--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Check Database Availability</t>
   </si>
@@ -35,23 +35,37 @@
     <t>Verify Windows Tasks/Jobs</t>
   </si>
   <si>
-    <t>https://github.com/shabbirahmd77/Server-Restart-Activities.git</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
     <t>Resource</t>
+  </si>
+  <si>
+    <t>ScriptstoCheckSQLJobs.sql</t>
+  </si>
+  <si>
+    <t>SQLDBAvailability.sql</t>
+  </si>
+  <si>
+    <t>Windows_Jobs.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,15 +109,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -394,37 +413,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" tooltip="ScriptstoCheckSQLJobs.sql" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/ScriptstoCheckSQLJobs.sql"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="SQLDBAvailability.sql" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/SQLDBAvailability.sql"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="Windows_Jobs.xlsx" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/Windows_Jobs.xlsx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Check Database Availability</t>
   </si>
@@ -49,12 +49,18 @@
   <si>
     <t>Windows_Jobs.xlsx</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +75,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,11 +124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -134,6 +146,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>139148</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>175591</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>282023</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>4141</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>139148</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>175591</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="755788" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>139148</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>175591</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="755788" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>139148</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>175591</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="751010" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>139148</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>175591</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="751010" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,50 +735,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44046</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -451,5 +801,123 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId7" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId9" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId10" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId11" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ServerRestartActivities\Server-Restart-Activities\ServerRestartActivities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UDAY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Check Database Availability</t>
   </si>
@@ -52,15 +52,18 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Thanks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,11 +78,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -175,15 +173,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>282023</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>4141</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -236,14 +234,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="755788" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -289,20 +292,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="755788" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -348,20 +356,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="751010" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -407,20 +420,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="751010" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -466,7 +484,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -736,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +789,9 @@
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -792,6 +812,11 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ServerRestartActivities\Server-Restart-Activities\ServerRestartActivities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHABBIR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,11 +75,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -175,15 +170,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>282023</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>4141</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -236,14 +231,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="755788" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -289,20 +289,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="755788" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -348,20 +353,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="751010" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -407,20 +417,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>139148</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>175591</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="751010" cy="209550"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -466,7 +481,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -739,7 +754,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +786,9 @@
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHABBIR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ServerRestartActivities\Server-Restart-Activities\ServerRestartActivities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -754,7 +754,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -754,7 +754,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
+++ b/ServerRestartActivities/ServerRestartActivitesChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Server Restart" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Check Database Availability</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>WindowsJobsPowershellScript.txt</t>
+  </si>
+  <si>
+    <t>Windows Jobs Verfication</t>
   </si>
 </sst>
 </file>
@@ -119,12 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -160,7 +167,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -305,7 +312,7 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -433,7 +440,7 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -751,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,9 +793,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -800,7 +805,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -809,23 +814,34 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="ScriptstoCheckSQLJobs.sql" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/ScriptstoCheckSQLJobs.sql"/>
     <hyperlink ref="B2" r:id="rId2" tooltip="SQLDBAvailability.sql" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/SQLDBAvailability.sql"/>
     <hyperlink ref="B4" r:id="rId3" tooltip="Windows_Jobs.xlsx" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/Windows_Jobs.xlsx"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="WindowsJobsPowershellScript.txt" display="https://github.com/shabbirahmd77/Server-Restart-Activities/blob/master/ServerRestartActivities/WindowsJobsPowershellScript.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId7" name="Check Box 1">
+            <control shapeId="1025" r:id="rId8" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -847,7 +863,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Check Box 2">
+            <control shapeId="1026" r:id="rId9" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -869,7 +885,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId9" name="Check Box 3">
+            <control shapeId="1027" r:id="rId10" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -881,7 +897,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -891,7 +907,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId10" name="Check Box 4">
+            <control shapeId="1028" r:id="rId11" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -913,7 +929,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId11" name="Check Box 5">
+            <control shapeId="1029" r:id="rId12" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -925,7 +941,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
